--- a/sample.xlsx
+++ b/sample.xlsx
@@ -12,7 +12,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+  <si>
+    <t>#SQL</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>#name</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>agi</t>
+  </si>
+  <si>
+    <t>sta</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>spi</t>
+  </si>
+  <si>
+    <t>faction</t>
+  </si>
   <si>
     <t>#JSON</t>
   </si>
@@ -29,46 +56,16 @@
     <t>bonus_gold</t>
   </si>
   <si>
-    <t>#uint16</t>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>float32</t>
-  </si>
-  <si>
-    <t>#SQL</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>#name</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>agi</t>
-  </si>
-  <si>
-    <t>sta</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>spi</t>
-  </si>
-  <si>
-    <t>faction</t>
+    <t>#</t>
+  </si>
+  <si>
+    <t>#int</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>#string</t>
-  </si>
-  <si>
-    <t>uint8</t>
   </si>
   <si>
     <t>Human</t>
@@ -156,11 +153,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -168,94 +165,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+      <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.5</v>
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" s="1">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B6" s="1">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="C6" s="1">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B7" s="1">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="C7" s="1">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
         <v>5.0</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>500.0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>2.5</v>
       </c>
     </row>
@@ -268,107 +276,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+      <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1.0</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="C5" s="1">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="D5" s="1">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="E5" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F5" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G5" s="1">
         <v>1.0</v>
@@ -376,22 +372,22 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="C6" s="1">
         <v>16.0</v>
       </c>
-      <c r="C6" s="1">
-        <v>24.0</v>
-      </c>
       <c r="D6" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="E6" s="1">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F6" s="1">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="G6" s="1">
         <v>1.0</v>
@@ -399,19 +395,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C7" s="1">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="D7" s="1">
         <v>20.0</v>
       </c>
       <c r="E7" s="1">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="F7" s="1">
         <v>20.0</v>
@@ -422,22 +418,22 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="C8" s="1">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="D8" s="1">
         <v>20.0</v>
       </c>
       <c r="E8" s="1">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="F8" s="1">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="G8" s="1">
         <v>1.0</v>
@@ -445,22 +441,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="C9" s="1">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="D9" s="1">
         <v>20.0</v>
       </c>
       <c r="E9" s="1">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="F9" s="1">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="G9" s="1">
         <v>1.0</v>
@@ -468,68 +464,68 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="C10" s="1">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="D10" s="1">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="E10" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="F10" s="1">
         <v>19.0</v>
       </c>
-      <c r="F10" s="1">
-        <v>22.0</v>
-      </c>
       <c r="G10" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="C11" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="D11" s="1">
         <v>21.0</v>
       </c>
       <c r="E11" s="1">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F11" s="1">
         <v>22.0</v>
       </c>
       <c r="G11" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="C12" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="D12" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="E12" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="F12" s="1">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="G12" s="1">
         <v>2.0</v>
@@ -537,22 +533,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="F13" s="1">
         <v>25.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>22.0</v>
       </c>
       <c r="G13" s="1">
         <v>2.0</v>
@@ -560,22 +556,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="D14" s="1">
         <v>21.0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20.0</v>
       </c>
       <c r="E14" s="1">
         <v>16.0</v>
       </c>
       <c r="F14" s="1">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G14" s="1">
         <v>2.0</v>
@@ -583,10 +579,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="C15" s="1">
         <v>22.0</v>
@@ -595,10 +591,10 @@
         <v>20.0</v>
       </c>
       <c r="E15" s="1">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="F15" s="1">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="G15" s="1">
         <v>2.0</v>
@@ -606,7 +602,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
         <v>17.0</v>
@@ -624,6 +620,29 @@
         <v>18.0</v>
       </c>
       <c r="G16" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G17" s="1">
         <v>2.0</v>
       </c>
     </row>
